--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AD559A-CE35-4480-AA80-290851368B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1680645E-77C5-4153-8724-692FAC4CA702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -117,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="144">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -155,20 +166,346 @@
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
   <si>
-    <t>1. Evidenţa filmelor din colecţia personală</t>
-  </si>
-  <si>
-    <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
-  </si>
-  <si>
+    <t>Observații</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
+  </si>
+  <si>
+    <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
+  </si>
+  <si>
+    <t>3. Se aleg doi parametri ai metodei testate şi se definesc condiţii asupra acestora. Condiţiile (constrângerile) rezultă din specificaţii.</t>
+  </si>
+  <si>
+    <t>4. Pentru aceşti parametri se aplică ECP şi BVA. La proiectarea testelor se consideră că parametrii de intrare neinvestigaţi aici au valori valide, adică folosim dummy objects.</t>
+  </si>
+  <si>
+    <t>EC Identification</t>
+  </si>
+  <si>
+    <t>EC-based TCs</t>
+  </si>
+  <si>
+    <t>No. EC</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Valid EC</t>
+  </si>
+  <si>
+    <t>Non-valid EC</t>
+  </si>
+  <si>
+    <t>No. TCxx_EC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>input data</t>
+  </si>
+  <si>
+    <t>output data</t>
+  </si>
+  <si>
+    <t>titlu</t>
+  </si>
+  <si>
+    <t>regizor</t>
+  </si>
+  <si>
+    <t>an aparitie</t>
+  </si>
+  <si>
+    <t>actori</t>
+  </si>
+  <si>
+    <t>categorie</t>
+  </si>
+  <si>
+    <t>cuvinte cheie</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>"Movie Title"</t>
+  </si>
+  <si>
+    <t>Actor1, Actor2</t>
+  </si>
+  <si>
+    <t>keyword1, keyword2</t>
+  </si>
+  <si>
+    <t>2,3,2</t>
+  </si>
+  <si>
+    <t>record added</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>201q</t>
+  </si>
+  <si>
+    <t>Error message-? Compiler checked</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BVA Condition</t>
+  </si>
+  <si>
+    <t>BVA Condition-based TCs</t>
+  </si>
+  <si>
+    <t>Crt. No.</t>
+  </si>
+  <si>
+    <t>No TCxx_BVA</t>
+  </si>
+  <si>
+    <t>BVA condition</t>
+  </si>
+  <si>
+    <t>Correlated TC</t>
+  </si>
+  <si>
+    <t>Executable</t>
+  </si>
+  <si>
+    <t>titlu is String, length in [1,255]</t>
+  </si>
+  <si>
+    <t>01. titlu = "", length = 0</t>
+  </si>
+  <si>
+    <t>expected result</t>
+  </si>
+  <si>
+    <t>02. titlu = ?, length = -1</t>
+  </si>
+  <si>
+    <t>TC3_EC</t>
+  </si>
+  <si>
+    <t>03. titlu = "M", length = 1</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>04. titlu = "M…123", length = 255</t>
+  </si>
+  <si>
+    <t>"M"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Director1, Director 2</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>05. titlu = "M…12", length = 254</t>
+  </si>
+  <si>
+    <t>"M…123"</t>
+  </si>
+  <si>
+    <t>06. titlu = "M…1234", length = 256</t>
+  </si>
+  <si>
+    <t>"M…12"</t>
+  </si>
+  <si>
+    <t>regizor is String, length in [1,255]</t>
+  </si>
+  <si>
+    <t>07. regizor = "", length = 0</t>
+  </si>
+  <si>
+    <t>"M…1234"</t>
+  </si>
+  <si>
+    <t>08. regizor = ?, length = -1</t>
+  </si>
+  <si>
+    <t>09. regizor = "D", length = 1</t>
+  </si>
+  <si>
+    <t>10. regizor = "D…123", length = 255</t>
+  </si>
+  <si>
+    <t>11. regizor = "D…12", length = 254</t>
+  </si>
+  <si>
+    <t>12. regizor = "D…1234", length = 256</t>
+  </si>
+  <si>
+    <t>an aparitie &gt;1900</t>
+  </si>
+  <si>
+    <t>13. an = 1960</t>
+  </si>
+  <si>
+    <t>14. an = 1959</t>
+  </si>
+  <si>
+    <t>15. an = 1961</t>
+  </si>
+  <si>
+    <t>16. an = max - 1</t>
+  </si>
+  <si>
+    <t>17. an = max + 1</t>
+  </si>
+  <si>
+    <t>18. an = max</t>
+  </si>
+  <si>
+    <t>BBT TCs</t>
+  </si>
+  <si>
+    <t>Final        TC No.</t>
+  </si>
+  <si>
+    <t>Req. ID</t>
+  </si>
+  <si>
+    <t>ECP TCs</t>
+  </si>
+  <si>
+    <t>BVA TCs</t>
+  </si>
+  <si>
+    <t>actual result</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>TC1_ECP</t>
+  </si>
+  <si>
+    <t>Director1, Director2</t>
+  </si>
+  <si>
+    <t>TC3_ECP</t>
+  </si>
+  <si>
+    <t>Error message-Empty movie title</t>
+  </si>
+  <si>
+    <t>TC5_ECP</t>
+  </si>
+  <si>
+    <t>TC3_BVA</t>
+  </si>
+  <si>
+    <t>TC4_BVA</t>
+  </si>
+  <si>
+    <t>TC5_BVA</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Re-testing</t>
+  </si>
+  <si>
+    <t>Regression Testing</t>
+  </si>
+  <si>
+    <t>#TCs to be run</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#TCs </t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color indexed="17"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t>passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#TCs    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>failed</t>
+    </r>
+  </si>
+  <si>
+    <t>#Bugs</t>
+  </si>
+  <si>
+    <t>#Fixed Bugs</t>
+  </si>
+  <si>
+    <t>Re-tested</t>
+  </si>
+  <si>
+    <t>not yet</t>
+  </si>
+  <si>
+    <t>Bumbac Andreea</t>
+  </si>
+  <si>
+    <t>Burlacu Catalin</t>
+  </si>
+  <si>
+    <t>Cîrnu Maria</t>
+  </si>
+  <si>
+    <t>1. Adaugarea unui task nou</t>
+  </si>
+  <si>
+    <t>Adaugarea unui task nou cu detaliile: descrierea, data si ora de inceput, data si ora de sfarsit. Daca task-ul este repetitiv, atunci se indica intervalul de timp la care se va repeta, dat ca numar de ore si minute. Task-ul poate fi activ sau nu.</t>
+  </si>
+  <si>
+    <r>
       <t>F01.</t>
     </r>
     <r>
@@ -179,29 +516,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> adăugarea unui film nou (titlu, regizor, an aparitie, actori, categorie, cuvinte cheie);</t>
+      <t xml:space="preserve"> getDateMergedWithTime(String time, Date noTimeDate);</t>
     </r>
   </si>
   <si>
-    <t>Observații</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
-  </si>
-  <si>
-    <t>addMovie(String title, String director, int year, List&lt;String&gt; actors, String category, List&lt;String&gt; keywords): void</t>
-  </si>
-  <si>
-    <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
-  </si>
-  <si>
-    <t>3. Se aleg doi parametri ai metodei testate şi se definesc condiţii asupra acestora. Condiţiile (constrângerile) rezultă din specificaţii.</t>
-  </si>
-  <si>
-    <t>4. Pentru aceşti parametri se aplică ECP şi BVA. La proiectarea testelor se consideră că parametrii de intrare neinvestigaţi aici au valori valide, adică folosim dummy objects.</t>
+    <t>getDateMergedWithTime(String time, Date noTimeDate): Date</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="30"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">Exemplu: Parametrii </t>
     </r>
     <r>
@@ -290,408 +619,102 @@
     </r>
   </si>
   <si>
-    <t>EC Identification</t>
-  </si>
-  <si>
-    <t>EC-based TCs</t>
-  </si>
-  <si>
-    <t>No. EC</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Valid EC</t>
-  </si>
-  <si>
-    <t>Non-valid EC</t>
-  </si>
-  <si>
-    <t>No. TCxx_EC</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>input data</t>
-  </si>
-  <si>
-    <t>output data</t>
-  </si>
-  <si>
-    <t>titlu is String</t>
-  </si>
-  <si>
-    <t>titlu</t>
-  </si>
-  <si>
-    <t>regizor</t>
-  </si>
-  <si>
-    <t>an aparitie</t>
-  </si>
-  <si>
-    <t>actori</t>
-  </si>
-  <si>
-    <t>categorie</t>
-  </si>
-  <si>
-    <t>cuvinte cheie</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>titlu not String</t>
-  </si>
-  <si>
-    <t>1, 3, 5, 7, 9, …</t>
-  </si>
-  <si>
-    <t>"Movie Title"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Director1, Director 2 Author2</t>
-  </si>
-  <si>
-    <t>Actor1, Actor2</t>
-  </si>
-  <si>
-    <t>Aventure</t>
-  </si>
-  <si>
-    <t>keyword1, keyword2</t>
-  </si>
-  <si>
-    <t>2,3,2</t>
-  </si>
-  <si>
-    <t>record added</t>
-  </si>
-  <si>
-    <t>regizor is String</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>regizor not String</t>
+    <t>time respecta regexul '[0-9]?[0-9]:[0-9]?[0-9]' (ore:minute sub forma HH:mm)</t>
+  </si>
+  <si>
+    <t>time respecta regexul</t>
+  </si>
+  <si>
+    <t>time nu respecta regex-ul</t>
+  </si>
+  <si>
+    <t>F01. getDateMergedWithTime(String time, Date noTimeDate);</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>noTimeDate</t>
+  </si>
+  <si>
+    <t>1, 3, 5, 7</t>
+  </si>
+  <si>
+    <t>"8:00"</t>
+  </si>
+  <si>
+    <t>31.03.2023</t>
+  </si>
+  <si>
+    <t>31.03.2023 8:00</t>
+  </si>
+  <si>
+    <t>ore &lt; 24</t>
+  </si>
+  <si>
+    <t>1, 4, 6, 8</t>
+  </si>
+  <si>
+    <t>"54:79"</t>
+  </si>
+  <si>
+    <t>01.01.1900</t>
+  </si>
+  <si>
+    <t>eroare</t>
+  </si>
+  <si>
+    <t>ore &gt;= 24</t>
+  </si>
+  <si>
+    <t>2, 7</t>
+  </si>
+  <si>
+    <t>"asd"</t>
+  </si>
+  <si>
+    <t>minute &lt; 60</t>
+  </si>
+  <si>
+    <t>date dupa 01.01.1970</t>
+  </si>
+  <si>
+    <t>minute &gt;= 60</t>
+  </si>
+  <si>
+    <t>data dupa 01.01.1970</t>
+  </si>
+  <si>
+    <t>data inainte de 01.01.1970</t>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>2</t>
+      <t>F01.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="30"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>, 3, 5, 7, 9</t>
+      <t xml:space="preserve"> getDateMergedWithTime(String time, Date noTimeDate);</t>
     </r>
-  </si>
-  <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>Error message-Empty title</t>
-  </si>
-  <si>
-    <t>an aparitie is number</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>an aparitie not number</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1, 3, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="49"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, …</t>
-    </r>
-  </si>
-  <si>
-    <t>201q</t>
-  </si>
-  <si>
-    <t>Error message-? Compiler checked</t>
-  </si>
-  <si>
-    <t>an aparitie &gt; 1900</t>
-  </si>
-  <si>
-    <t>an aparitie not &gt; 1900</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>BVA Condition</t>
-  </si>
-  <si>
-    <t>BVA Condition-based TCs</t>
-  </si>
-  <si>
-    <t>Crt. No.</t>
-  </si>
-  <si>
-    <t>No TCxx_BVA</t>
-  </si>
-  <si>
-    <t>BVA condition</t>
-  </si>
-  <si>
-    <t>Correlated TC</t>
-  </si>
-  <si>
-    <t>Executable</t>
-  </si>
-  <si>
-    <t>titlu is String, length in [1,255]</t>
-  </si>
-  <si>
-    <t>01. titlu = "", length = 0</t>
-  </si>
-  <si>
-    <t>expected result</t>
-  </si>
-  <si>
-    <t>02. titlu = ?, length = -1</t>
-  </si>
-  <si>
-    <t>TC3_EC</t>
-  </si>
-  <si>
-    <t>03. titlu = "M", length = 1</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>04. titlu = "M…123", length = 255</t>
-  </si>
-  <si>
-    <t>"M"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Director1, Director 2</t>
-  </si>
-  <si>
-    <t>Drama</t>
-  </si>
-  <si>
-    <t>05. titlu = "M…12", length = 254</t>
-  </si>
-  <si>
-    <t>"M…123"</t>
-  </si>
-  <si>
-    <t>06. titlu = "M…1234", length = 256</t>
-  </si>
-  <si>
-    <t>"M…12"</t>
-  </si>
-  <si>
-    <t>regizor is String, length in [1,255]</t>
-  </si>
-  <si>
-    <t>07. regizor = "", length = 0</t>
-  </si>
-  <si>
-    <t>"M…1234"</t>
-  </si>
-  <si>
-    <t>08. regizor = ?, length = -1</t>
-  </si>
-  <si>
-    <t>09. regizor = "D", length = 1</t>
-  </si>
-  <si>
-    <t>10. regizor = "D…123", length = 255</t>
-  </si>
-  <si>
-    <t>11. regizor = "D…12", length = 254</t>
-  </si>
-  <si>
-    <t>12. regizor = "D…1234", length = 256</t>
-  </si>
-  <si>
-    <t>an aparitie &gt;1900</t>
-  </si>
-  <si>
-    <t>13. an = 1960</t>
-  </si>
-  <si>
-    <t>14. an = 1959</t>
-  </si>
-  <si>
-    <t>15. an = 1961</t>
-  </si>
-  <si>
-    <t>16. an = max - 1</t>
-  </si>
-  <si>
-    <t>17. an = max + 1</t>
-  </si>
-  <si>
-    <t>18. an = max</t>
-  </si>
-  <si>
-    <t>BBT TCs</t>
-  </si>
-  <si>
-    <t>Final        TC No.</t>
-  </si>
-  <si>
-    <t>Req. ID</t>
-  </si>
-  <si>
-    <t>ECP TCs</t>
-  </si>
-  <si>
-    <t>BVA TCs</t>
-  </si>
-  <si>
-    <t>actual result</t>
-  </si>
-  <si>
-    <t>F01</t>
-  </si>
-  <si>
-    <t>TC1_ECP</t>
-  </si>
-  <si>
-    <t>Director1, Director2</t>
-  </si>
-  <si>
-    <t>TC3_ECP</t>
-  </si>
-  <si>
-    <t>Error message-Empty movie title</t>
-  </si>
-  <si>
-    <t>TC5_ECP</t>
-  </si>
-  <si>
-    <t>TC3_BVA</t>
-  </si>
-  <si>
-    <t>TC4_BVA</t>
-  </si>
-  <si>
-    <t>TC5_BVA</t>
-  </si>
-  <si>
-    <t>Statistics</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Debugging</t>
-  </si>
-  <si>
-    <t>Re-testing</t>
-  </si>
-  <si>
-    <t>Regression Testing</t>
-  </si>
-  <si>
-    <t>#TCs to be run</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#TCs </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>passed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#TCs    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>failed</t>
-    </r>
-  </si>
-  <si>
-    <t>#Bugs</t>
-  </si>
-  <si>
-    <t>#Fixed Bugs</t>
-  </si>
-  <si>
-    <t>Re-tested</t>
-  </si>
-  <si>
-    <t>not yet</t>
-  </si>
-  <si>
-    <t>Bumbac Andreea</t>
-  </si>
-  <si>
-    <t>Burlacu Catalin</t>
-  </si>
-  <si>
-    <t>Cîrnu Maria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,25 +757,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="49"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="30"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="30"/>
       <name val="Calibri"/>
@@ -898,17 +903,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -955,7 +966,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1377,13 +1388,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1391,85 +1417,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1477,94 +1503,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1580,171 +1547,268 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2054,40 +2118,40 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:I23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="9" max="9" width="32.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="53" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="H1" s="51" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="H1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H2" s="56" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -2096,182 +2160,206 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="J4" s="2">
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="J5" s="2">
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="37"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="J6" s="2">
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
+    <row r="7" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="122" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="123" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="123" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="123" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="123" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="125" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="s">
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="123" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="47"/>
+      <c r="B24" s="123" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="50"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+    </row>
+    <row r="25" spans="1:15" ht="360" x14ac:dyDescent="0.3">
+      <c r="B25" s="126" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B24:N24"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B15:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2286,446 +2374,346 @@
   <dimension ref="B1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.44140625" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="53" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="80" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="145" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="129"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="147" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="G5" s="148" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
+    </row>
+    <row r="6" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="G5" s="81" t="s">
+      <c r="G6" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="H6" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="I6" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="66"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q6" s="136"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>32</v>
+      <c r="C7" s="142" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="127" t="s">
+        <v>121</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="23" t="s">
+      <c r="G7" s="150"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="153" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="153" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="154"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="63"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q7" s="133"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="142"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>40</v>
+      <c r="E8" s="127" t="s">
+        <v>122</v>
       </c>
       <c r="G8" s="23">
         <v>1</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2012</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="59"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H8" s="155" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="155" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="155" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="155"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="155" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q8" s="129"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="74" t="s">
-        <v>49</v>
+      <c r="C9" s="142" t="s">
+        <v>130</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="23">
         <v>2</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="59"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H9" s="155" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="155" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="155" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="155"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="155" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q9" s="129"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="G10" s="36">
         <v>3</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="14">
-        <v>2012</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="71"/>
-      <c r="P10" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="71"/>
-    </row>
-    <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="156" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="156" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="156" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="156"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q10" s="141"/>
+    </row>
+    <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="74" t="s">
-        <v>57</v>
+      <c r="C11" s="142" t="s">
+        <v>138</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="E11" s="4"/>
       <c r="G11" s="36">
         <v>4</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="71"/>
-      <c r="P11" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="71"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="141"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="141"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="142"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="G12" s="13">
         <v>5</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q12" s="73"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P12" s="138"/>
+      <c r="Q12" s="139"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="75" t="s">
-        <v>63</v>
+      <c r="C13" s="143" t="s">
+        <v>139</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="E13" s="4"/>
       <c r="G13" s="13">
         <v>6</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="O13" s="73"/>
-      <c r="P13" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="73"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="139"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="G14" s="19">
         <v>7</v>
       </c>
-      <c r="H14" s="18">
-        <v>10</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="N14" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="69"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="61"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="131"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="74" t="s">
-        <v>50</v>
+      <c r="C15" s="142" t="s">
+        <v>39</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="19">
         <v>8</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>50</v>
-      </c>
+      <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="61"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="128"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="131"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="19"/>
@@ -2735,17 +2723,17 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="61"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="128"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="131"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="74" t="s">
-        <v>50</v>
+      <c r="C17" s="142" t="s">
+        <v>39</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2756,16 +2744,16 @@
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="61"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N17" s="128"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="131"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="19"/>
@@ -2775,17 +2763,17 @@
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="61"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N18" s="128"/>
+      <c r="O18" s="129"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="131"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="74" t="s">
-        <v>50</v>
+      <c r="C19" s="142" t="s">
+        <v>39</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2796,69 +2784,30 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="61"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N19" s="128"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="131"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="74"/>
+      <c r="C20" s="142"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
+        <v>47</v>
+      </c>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="2">
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2871,148 +2820,148 @@
   </sheetPr>
   <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="53" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-    </row>
-    <row r="6" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+    </row>
+    <row r="6" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="G6" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="G6" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="86" t="s">
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="79"/>
+    </row>
+    <row r="7" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="54">
+        <v>1</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="86" t="s">
+      <c r="O7" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="88"/>
-    </row>
-    <row r="7" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="75">
-        <v>1</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>37</v>
-      </c>
       <c r="P7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="R7" s="63"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="91"/>
-      <c r="C8" s="93"/>
+        <v>32</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" s="65"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="71"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="G8" s="23">
         <v>1</v>
@@ -3021,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="34"/>
@@ -3030,14 +2979,14 @@
       <c r="N8" s="34"/>
       <c r="O8" s="34"/>
       <c r="P8" s="34"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="85"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="91"/>
-      <c r="C9" s="93"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="81"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="71"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="G9" s="19">
         <v>2</v>
@@ -3047,34 +2996,34 @@
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N9" s="18"/>
       <c r="O9" s="18" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="63"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="71"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="R9" s="73"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="91"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="G10" s="23">
         <v>3</v>
@@ -3085,33 +3034,33 @@
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="33" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="M10" s="34">
         <v>2010</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="R10" s="85"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="91"/>
-      <c r="C11" s="93"/>
+        <v>36</v>
+      </c>
+      <c r="Q10" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="81"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="71"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="G11" s="23">
         <v>4</v>
@@ -3122,33 +3071,33 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="33" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="L11" s="34" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="M11" s="34">
         <v>2010</v>
       </c>
       <c r="N11" s="34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="R11" s="85"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="76"/>
-      <c r="C12" s="94"/>
+        <v>36</v>
+      </c>
+      <c r="Q11" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="81"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="55"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G12" s="23">
         <v>5</v>
@@ -3159,37 +3108,37 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="33" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="M12" s="34">
         <v>2010</v>
       </c>
       <c r="N12" s="34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="O12" s="34" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="R12" s="85"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="75">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12" s="81"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="54">
         <v>2</v>
       </c>
-      <c r="C13" s="75" t="s">
-        <v>89</v>
+      <c r="C13" s="54" t="s">
+        <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="G13" s="19">
         <v>6</v>
@@ -3199,36 +3148,36 @@
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="M13" s="18">
         <v>2010</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="R13" s="73"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
+        <v>36</v>
+      </c>
+      <c r="Q13" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13" s="63"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G14" s="23">
         <v>7</v>
@@ -3237,10 +3186,10 @@
         <v>7</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
@@ -3248,14 +3197,14 @@
       <c r="N14" s="34"/>
       <c r="O14" s="34"/>
       <c r="P14" s="34"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="85"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="81"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G15" s="23">
         <v>8</v>
@@ -3264,10 +3213,10 @@
         <v>8</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
@@ -3275,14 +3224,14 @@
       <c r="N15" s="34"/>
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="85"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="81"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G16" s="23">
         <v>9</v>
@@ -3296,14 +3245,14 @@
       <c r="N16" s="34"/>
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="85"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="81"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G17" s="23">
         <v>10</v>
@@ -3317,14 +3266,14 @@
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
       <c r="P17" s="34"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="85"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="81"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G18" s="23">
         <v>11</v>
@@ -3338,18 +3287,18 @@
       <c r="N18" s="34"/>
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="85"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="75">
+      <c r="Q18" s="80"/>
+      <c r="R18" s="81"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="54">
         <v>3</v>
       </c>
-      <c r="C19" s="92" t="s">
-        <v>97</v>
+      <c r="C19" s="72" t="s">
+        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G19" s="23">
         <v>12</v>
@@ -3363,14 +3312,14 @@
       <c r="N19" s="34"/>
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="85"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="91"/>
-      <c r="C20" s="93"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="81"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="71"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G20" s="23">
         <v>13</v>
@@ -3384,14 +3333,14 @@
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="85"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="91"/>
-      <c r="C21" s="93"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="81"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="71"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G21" s="23">
         <v>14</v>
@@ -3405,14 +3354,14 @@
       <c r="N21" s="34"/>
       <c r="O21" s="34"/>
       <c r="P21" s="34"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="85"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="91"/>
-      <c r="C22" s="93"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="81"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="71"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="G22" s="23">
         <v>15</v>
@@ -3426,14 +3375,14 @@
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="85"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="91"/>
-      <c r="C23" s="93"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="81"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="71"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G23" s="23">
         <v>16</v>
@@ -3447,14 +3396,14 @@
       <c r="N23" s="34"/>
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="85"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="76"/>
-      <c r="C24" s="94"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="81"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="55"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="G24" s="23">
         <v>17</v>
@@ -3468,18 +3417,18 @@
       <c r="N24" s="34"/>
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="85"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="75">
+      <c r="Q24" s="80"/>
+      <c r="R24" s="81"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="54">
         <v>4</v>
       </c>
-      <c r="C25" s="92" t="s">
-        <v>50</v>
+      <c r="C25" s="72" t="s">
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G25" s="23">
         <v>18</v>
@@ -3493,60 +3442,84 @@
       <c r="N25" s="34"/>
       <c r="O25" s="34"/>
       <c r="P25" s="34"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="85"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="91"/>
-      <c r="C26" s="93"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="81"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="71"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="91"/>
-      <c r="C27" s="93"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="71"/>
+      <c r="C27" s="73"/>
       <c r="D27" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="91"/>
-      <c r="C28" s="93"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="71"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
+        <v>39</v>
+      </c>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
       <c r="N28" s="43"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="91"/>
-      <c r="C29" s="93"/>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29" s="71"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
+        <v>39</v>
+      </c>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
       <c r="N29" s="44"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="76"/>
-      <c r="C30" s="94"/>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B30" s="55"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
@@ -3563,30 +3536,6 @@
     <mergeCell ref="G5:R5"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3602,412 +3551,412 @@
   <dimension ref="B1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="53" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="134" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="128" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="113" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="62" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="68"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="102"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="66" t="s">
+      <c r="J5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="66"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="112"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="26" t="s">
+      <c r="K5" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="86"/>
+      <c r="M5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="122"/>
-      <c r="M5" s="26" t="s">
-        <v>39</v>
-      </c>
       <c r="N5" s="26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="110" t="s">
-        <v>110</v>
+      <c r="C6" s="100" t="s">
+        <v>91</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="H6" s="29">
         <v>2010</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="123" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="124" t="s">
-        <v>47</v>
+        <v>65</v>
+      </c>
+      <c r="K6" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="88" t="s">
+        <v>37</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="12">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="110"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="31" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="H7" s="8">
         <v>2010</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="131"/>
+        <v>65</v>
+      </c>
+      <c r="K7" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="95"/>
       <c r="M7" s="8" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="110"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="31" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="110"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="31" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="132" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="133"/>
+        <v>39</v>
+      </c>
+      <c r="K9" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="97"/>
       <c r="M9" s="12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="110"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="31" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="H10" s="11">
         <v>2010</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="126"/>
+        <v>65</v>
+      </c>
+      <c r="K10" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="90"/>
       <c r="M10" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="110"/>
+      <c r="C11" s="100"/>
       <c r="D11" s="31" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="H11" s="11">
         <v>2010</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="126"/>
+        <v>65</v>
+      </c>
+      <c r="K11" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="90"/>
       <c r="M11" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="110"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="31" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="H12" s="11">
         <v>2010</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="126"/>
+        <v>65</v>
+      </c>
+      <c r="K12" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="90"/>
       <c r="M12" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="111"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="32" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="120"/>
+        <v>39</v>
+      </c>
+      <c r="K13" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="84"/>
       <c r="M13" s="25" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N13" s="25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
@@ -4022,9 +3971,9 @@
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
@@ -4034,102 +3983,102 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="98" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
+    <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
       <c r="G17" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="I17" s="99"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="N17" s="99"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="101"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="117" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="114"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="111" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17" s="114"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="113"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="108" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="96" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="97" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="108" t="s">
-        <v>128</v>
-      </c>
-      <c r="H18" s="104" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" s="105"/>
-      <c r="J18" s="96" t="s">
-        <v>124</v>
-      </c>
-      <c r="K18" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="L18" s="97" t="s">
-        <v>126</v>
-      </c>
-      <c r="M18" s="102" t="s">
-        <v>129</v>
-      </c>
-      <c r="N18" s="96" t="s">
-        <v>124</v>
-      </c>
-      <c r="O18" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="P18" s="97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="117"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="97"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E18" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="119" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="116"/>
+      <c r="J18" s="109" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="109" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="110" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="120" t="s">
+        <v>110</v>
+      </c>
+      <c r="N18" s="109" t="s">
+        <v>105</v>
+      </c>
+      <c r="O18" s="109" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" s="110" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="107"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
+      <c r="P19" s="110"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="42" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C20" s="38">
         <v>8</v>
@@ -4142,10 +4091,10 @@
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="46"/>
-      <c r="H20" s="115" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" s="116"/>
+      <c r="H20" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="106"/>
       <c r="J20" s="2">
         <v>3</v>
       </c>
@@ -4156,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="45" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="N20" s="2">
         <v>5</v>
@@ -4168,25 +4117,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
@@ -4203,12 +4144,20 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4217,6 +4166,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -4360,22 +4324,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153A5999-B236-48B1-944C-C5EB94545735}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4391,21 +4357,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C6508E-7FD2-46F7-A11C-0F98DC7B769E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929EC77B-869B-4D8A-9A20-F5ED140A7895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -82,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="130">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -718,6 +729,15 @@
   </si>
   <si>
     <t>TC6_ECP</t>
+  </si>
+  <si>
+    <t>Bumbac Andreea</t>
+  </si>
+  <si>
+    <t>Burlacu Catalin</t>
+  </si>
+  <si>
+    <t>Cirnu Maria</t>
   </si>
 </sst>
 </file>
@@ -1475,6 +1495,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1490,77 +1513,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1568,35 +1621,47 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1607,80 +1672,35 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1991,8 +2011,8 @@
   </sheetPr>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2005,12 +2025,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
       <c r="H1" s="40" t="s">
         <v>1</v>
       </c>
@@ -2018,11 +2038,11 @@
       <c r="J1" s="40"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
@@ -2037,23 +2057,35 @@
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="2">
+        <v>232</v>
+      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="2">
+        <v>232</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="27"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="2">
+        <v>232</v>
+      </c>
     </row>
     <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
@@ -2173,104 +2205,104 @@
     </row>
     <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="99" t="s">
+      <c r="B29" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="99" t="s">
+      <c r="B33" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="B24:N24"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2306,41 +2338,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="G5" s="71" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="G5" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
@@ -2355,37 +2387,37 @@
       <c r="E6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="59" t="s">
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="59"/>
+      <c r="O6" s="69"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="51" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="58"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="17" t="s">
         <v>89</v>
       </c>
@@ -2401,16 +2433,16 @@
       <c r="M7" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="N7" s="55" t="s">
+      <c r="N7" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="56"/>
+      <c r="O7" s="72"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>79</v>
@@ -2436,16 +2468,16 @@
       <c r="M8" s="2">
         <v>1</v>
       </c>
-      <c r="N8" s="51" t="s">
+      <c r="N8" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="52"/>
+      <c r="O8" s="66"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="51" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2473,16 +2505,16 @@
       <c r="M9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="51" t="s">
+      <c r="N9" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="52"/>
+      <c r="O9" s="66"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>81</v>
@@ -2508,16 +2540,16 @@
       <c r="M10" s="10">
         <v>1</v>
       </c>
-      <c r="N10" s="61" t="s">
+      <c r="N10" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="O10" s="62"/>
+      <c r="O10" s="64"/>
     </row>
     <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="51" t="s">
         <v>82</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -2545,16 +2577,16 @@
       <c r="M11" s="6">
         <v>1</v>
       </c>
-      <c r="N11" s="63" t="s">
+      <c r="N11" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="64"/>
+      <c r="O11" s="62"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>83</v>
@@ -2580,16 +2612,16 @@
       <c r="M12" s="6">
         <v>1</v>
       </c>
-      <c r="N12" s="63" t="s">
+      <c r="N12" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="64"/>
+      <c r="O12" s="62"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="52" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2617,16 +2649,16 @@
       <c r="M13" s="6">
         <v>1</v>
       </c>
-      <c r="N13" s="63" t="s">
+      <c r="N13" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="O13" s="64"/>
+      <c r="O13" s="62"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>85</v>
@@ -2652,16 +2684,16 @@
       <c r="M14" s="13">
         <v>28</v>
       </c>
-      <c r="N14" s="63" t="s">
+      <c r="N14" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="O14" s="64"/>
+      <c r="O14" s="62"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="51" t="s">
         <v>86</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2679,14 +2711,14 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="75"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>87</v>
@@ -2698,14 +2730,14 @@
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="51" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="4"/>
@@ -2717,14 +2749,14 @@
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="54"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="75"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="14"/>
@@ -2734,14 +2766,14 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="54"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="51" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="4"/>
@@ -2753,14 +2785,14 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="75"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
@@ -2768,11 +2800,24 @@
       <c r="D22" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C7:C8"/>
@@ -2789,19 +2834,6 @@
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N15:O15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2814,15 +2846,15 @@
   </sheetPr>
   <dimension ref="B1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="5.5546875" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" customWidth="1"/>
@@ -2830,51 +2862,51 @@
     <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5546875" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
     <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
     <col min="16" max="16" width="23.33203125" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
     </row>
     <row r="6" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
@@ -2887,44 +2919,44 @@
         <v>42</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="76" t="s">
+      <c r="K6" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="76" t="s">
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="78"/>
+      <c r="Q6" s="84"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="66">
+      <c r="B7" s="52">
         <v>1</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="77" t="s">
         <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="58"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="17" t="s">
         <v>89</v>
       </c>
@@ -2940,14 +2972,14 @@
       <c r="O7" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="P7" s="55" t="s">
+      <c r="P7" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="56"/>
+      <c r="Q7" s="72"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="81"/>
-      <c r="C8" s="83"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="2" t="s">
         <v>105</v>
       </c>
@@ -2976,14 +3008,14 @@
       <c r="O8" s="2">
         <v>1</v>
       </c>
-      <c r="P8" s="51" t="s">
+      <c r="P8" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="52"/>
+      <c r="Q8" s="66"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="81"/>
-      <c r="C9" s="83"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="2" t="s">
         <v>106</v>
       </c>
@@ -3020,8 +3052,8 @@
       <c r="Q9" s="42"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="81"/>
-      <c r="C10" s="83"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="2" t="s">
         <v>107</v>
       </c>
@@ -3058,8 +3090,8 @@
       <c r="Q10" s="44"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="81"/>
-      <c r="C11" s="83"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="2" t="s">
         <v>108</v>
       </c>
@@ -3096,8 +3128,8 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="67"/>
-      <c r="C12" s="84"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="2" t="s">
         <v>109</v>
       </c>
@@ -3116,10 +3148,10 @@
       <c r="Q12" s="44"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="66">
+      <c r="B13" s="52">
         <v>2</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="52" t="s">
         <v>110</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -3140,8 +3172,8 @@
       <c r="Q13" s="44"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="2" t="s">
         <v>112</v>
       </c>
@@ -3160,12 +3192,12 @@
       <c r="M14" s="2"/>
       <c r="N14" s="6"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="64"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="62"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="2" t="s">
         <v>113</v>
       </c>
@@ -3186,12 +3218,12 @@
       <c r="M15" s="2"/>
       <c r="N15" s="6"/>
       <c r="O15" s="13"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="64"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="62"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="2" t="s">
         <v>114</v>
       </c>
@@ -3206,12 +3238,12 @@
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="75"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="86"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="2" t="s">
         <v>115</v>
       </c>
@@ -3226,12 +3258,12 @@
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="75"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="86"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="2" t="s">
         <v>116</v>
       </c>
@@ -3246,14 +3278,14 @@
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="75"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="86"/>
     </row>
     <row r="19" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="66">
+      <c r="B19" s="52">
         <v>3</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -3270,12 +3302,12 @@
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="75"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="86"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="2" t="s">
         <v>119</v>
       </c>
@@ -3290,12 +3322,12 @@
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="75"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="86"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="2" t="s">
         <v>120</v>
       </c>
@@ -3310,12 +3342,12 @@
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="75"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="86"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="2" t="s">
         <v>121</v>
       </c>
@@ -3330,12 +3362,12 @@
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="75"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="86"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="2" t="s">
         <v>122</v>
       </c>
@@ -3350,12 +3382,12 @@
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="75"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="86"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="2" t="s">
         <v>123</v>
       </c>
@@ -3370,12 +3402,12 @@
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="75"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="86"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="66"/>
-      <c r="C25" s="82"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="2"/>
       <c r="G25" s="17">
         <v>18</v>
@@ -3388,50 +3420,69 @@
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="75"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="86"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="81"/>
-      <c r="C26" s="83"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="81"/>
-      <c r="C27" s="83"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="81"/>
-      <c r="C28" s="83"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="2"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
       <c r="N28" s="33"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="81"/>
-      <c r="C29" s="83"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="2"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
       <c r="N29" s="34"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="67"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
@@ -3448,25 +3499,6 @@
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="K6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3481,7 +3513,7 @@
   <dimension ref="B1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3492,62 +3524,62 @@
     <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="59" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="59"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="102"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="109"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="17" t="s">
         <v>89</v>
       </c>
@@ -3563,16 +3595,16 @@
       <c r="J5" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="56"/>
+      <c r="L5" s="72"/>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18">
         <v>1</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="92" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="22" t="s">
@@ -3596,17 +3628,17 @@
       <c r="J6" s="2">
         <v>1</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="52"/>
+      <c r="L6" s="66"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="8">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="100"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="23" t="s">
         <v>58</v>
       </c>
@@ -3638,7 +3670,7 @@
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="100"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="23" t="s">
         <v>124</v>
       </c>
@@ -3670,7 +3702,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="100"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="23" t="s">
         <v>59</v>
       </c>
@@ -3702,7 +3734,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="100"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="23" t="s">
         <v>126</v>
       </c>
@@ -3732,7 +3764,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="100"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="23" t="s">
         <v>125</v>
       </c>
@@ -3762,7 +3794,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="100"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="23" t="s">
         <v>36</v>
       </c>
@@ -3782,17 +3814,17 @@
       <c r="J12" s="13">
         <v>28</v>
       </c>
-      <c r="K12" s="63" t="s">
+      <c r="K12" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="L12" s="64"/>
+      <c r="L12" s="62"/>
     </row>
     <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="101"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="24" t="s">
         <v>34</v>
       </c>
@@ -3804,8 +3836,8 @@
       <c r="H13" s="2"/>
       <c r="I13" s="6"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="64"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="62"/>
     </row>
     <row r="14" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="20"/>
@@ -3838,80 +3870,80 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="91"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="105"/>
       <c r="G17" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="88" t="s">
+      <c r="H17" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="89"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="88" t="s">
+      <c r="I17" s="106"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="91"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="105"/>
     </row>
     <row r="18" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="86" t="s">
+      <c r="E18" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="87" t="s">
+      <c r="F18" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="98" t="s">
+      <c r="G18" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="94" t="s">
+      <c r="H18" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="95"/>
-      <c r="J18" s="86" t="s">
+      <c r="I18" s="108"/>
+      <c r="J18" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="92" t="s">
+      <c r="K18" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="86" t="s">
+      <c r="L18" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="86" t="s">
+      <c r="M18" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="87" t="s">
+      <c r="N18" s="102" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="107"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="87"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="102"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="32" t="s">
@@ -3928,10 +3960,10 @@
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="105" t="s">
+      <c r="H20" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="106"/>
+      <c r="I20" s="98"/>
       <c r="J20" s="2">
         <v>3</v>
       </c>
@@ -3953,6 +3985,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K6:L6"/>
@@ -3966,22 +4014,6 @@
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3990,6 +4022,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -4133,22 +4180,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153A5999-B236-48B1-944C-C5EB94545735}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4164,21 +4213,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>